--- a/trials/results/sheets/res_newest_mnist.xlsx
+++ b/trials/results/sheets/res_newest_mnist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\dqnTest\preliminary_trials\results\sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\83930\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20060CC9-4B46-4C58-98CE-5D00623BA205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ABB115-7C43-424C-9BA1-CDA2CA0982A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,12 +384,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -404,8 +410,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -711,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -721,7 +728,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -737,7 +744,7 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -745,7 +752,7 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -753,7 +760,7 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -761,7 +768,7 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -769,7 +776,7 @@
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -777,7 +784,7 @@
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -785,7 +792,7 @@
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -793,7 +800,7 @@
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -801,7 +808,7 @@
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -809,7 +816,7 @@
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -817,7 +824,7 @@
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -825,7 +832,7 @@
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -833,7 +840,7 @@
       <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -841,7 +848,7 @@
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -849,7 +856,7 @@
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -857,7 +864,7 @@
       <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -865,7 +872,7 @@
       <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -873,7 +880,7 @@
       <c r="A20" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -881,7 +888,7 @@
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -889,7 +896,7 @@
       <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -897,7 +904,7 @@
       <c r="A23" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>28</v>
       </c>
     </row>
@@ -905,7 +912,7 @@
       <c r="A24" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -913,7 +920,7 @@
       <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>30</v>
       </c>
     </row>
@@ -921,7 +928,7 @@
       <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -929,7 +936,7 @@
       <c r="A27" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>32</v>
       </c>
     </row>
@@ -937,7 +944,7 @@
       <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>33</v>
       </c>
     </row>
@@ -945,7 +952,7 @@
       <c r="A29" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>34</v>
       </c>
     </row>
@@ -953,7 +960,7 @@
       <c r="A30" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -961,7 +968,7 @@
       <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -969,7 +976,7 @@
       <c r="A32" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>39</v>
       </c>
     </row>
@@ -977,7 +984,7 @@
       <c r="A33" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>40</v>
       </c>
     </row>
@@ -985,7 +992,7 @@
       <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>41</v>
       </c>
     </row>
@@ -993,7 +1000,7 @@
       <c r="A35" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1001,7 +1008,7 @@
       <c r="A36" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1017,7 +1024,7 @@
       <c r="A38" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1025,7 +1032,7 @@
       <c r="A39" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1033,7 +1040,7 @@
       <c r="A40" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1041,7 +1048,7 @@
       <c r="A41" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1049,7 +1056,7 @@
       <c r="A42" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1057,7 +1064,7 @@
       <c r="A43" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1065,7 +1072,7 @@
       <c r="A44" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1073,7 +1080,7 @@
       <c r="A45" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1081,7 +1088,7 @@
       <c r="A46" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1089,7 +1096,7 @@
       <c r="A47" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1097,7 +1104,7 @@
       <c r="A48" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1105,7 +1112,7 @@
       <c r="A49" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1121,7 +1128,7 @@
       <c r="A51" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1129,7 +1136,7 @@
       <c r="A52" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1137,7 +1144,7 @@
       <c r="A53" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1153,7 +1160,7 @@
       <c r="A55" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1177,7 +1184,7 @@
       <c r="A58" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1185,7 +1192,7 @@
       <c r="A59" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1201,7 +1208,7 @@
       <c r="A61" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1209,7 +1216,7 @@
       <c r="A62" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1217,7 +1224,7 @@
       <c r="A63" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1225,7 +1232,7 @@
       <c r="A64" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1233,7 +1240,7 @@
       <c r="A65" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1241,7 +1248,7 @@
       <c r="A66" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1249,7 +1256,7 @@
       <c r="A67" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1257,7 +1264,7 @@
       <c r="A68" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1265,7 +1272,7 @@
       <c r="A69" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1273,7 +1280,7 @@
       <c r="A70" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1281,7 +1288,7 @@
       <c r="A71" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1305,7 +1312,7 @@
       <c r="A74" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1313,7 +1320,7 @@
       <c r="A75" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1329,7 +1336,7 @@
       <c r="A77" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1337,7 +1344,7 @@
       <c r="A78" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1345,7 +1352,7 @@
       <c r="A79" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1353,7 +1360,7 @@
       <c r="A80" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1361,7 +1368,7 @@
       <c r="A81" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1369,7 +1376,7 @@
       <c r="A82" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1377,7 +1384,7 @@
       <c r="A83" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1385,7 +1392,7 @@
       <c r="A84" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1393,7 +1400,7 @@
       <c r="A85" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1401,7 +1408,7 @@
       <c r="A86" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1409,7 +1416,7 @@
       <c r="A87" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1417,7 +1424,7 @@
       <c r="A88" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1425,7 +1432,7 @@
       <c r="A89" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1433,7 +1440,7 @@
       <c r="A90" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1441,7 +1448,7 @@
       <c r="A91" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1449,7 +1456,7 @@
       <c r="A92" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1465,7 +1472,7 @@
       <c r="A94" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1473,7 +1480,7 @@
       <c r="A95" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1481,7 +1488,7 @@
       <c r="A96" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1489,7 +1496,7 @@
       <c r="A97" t="s">
         <v>78</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1497,7 +1504,7 @@
       <c r="A98" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1505,7 +1512,7 @@
       <c r="A99" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1513,7 +1520,7 @@
       <c r="A100" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1521,7 +1528,7 @@
       <c r="A101" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1529,7 +1536,7 @@
       <c r="A102" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1537,7 +1544,7 @@
       <c r="A103" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1545,7 +1552,7 @@
       <c r="A104" t="s">
         <v>2</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1553,7 +1560,7 @@
       <c r="A105" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1561,7 +1568,7 @@
       <c r="A106" t="s">
         <v>2</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1569,7 +1576,7 @@
       <c r="A107" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1577,7 +1584,7 @@
       <c r="A108" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>98</v>
       </c>
     </row>
